--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220420_110419.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220420_110419.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-20</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220420_110419.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220420_110419.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>꿈의엔진</t>
@@ -1306,7 +1303,7 @@
         <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1358,7 +1355,7 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1384,7 +1381,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1410,7 +1407,7 @@
         <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1436,7 +1433,7 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1462,7 +1459,7 @@
         <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1514,7 +1511,7 @@
         <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1540,7 +1537,7 @@
         <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1592,7 +1589,7 @@
         <v>238</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1644,7 +1641,7 @@
         <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1670,7 +1667,7 @@
         <v>238</v>
       </c>
       <c r="H18" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1696,7 +1693,7 @@
         <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1722,7 +1719,7 @@
         <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1748,7 +1745,7 @@
         <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1774,7 +1771,7 @@
         <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1800,7 +1797,7 @@
         <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1826,7 +1823,7 @@
         <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1852,7 +1849,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1878,7 +1875,7 @@
         <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1904,7 +1901,7 @@
         <v>247</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1930,7 +1927,7 @@
         <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1956,7 +1953,7 @@
         <v>249</v>
       </c>
       <c r="H29" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1982,7 +1979,7 @@
         <v>235</v>
       </c>
       <c r="H30" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2008,7 +2005,7 @@
         <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2034,7 +2031,7 @@
         <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2060,7 +2057,7 @@
         <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2190,7 +2187,7 @@
         <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2242,7 +2239,7 @@
         <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2268,7 +2265,7 @@
         <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2294,7 +2291,7 @@
         <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2320,7 +2317,7 @@
         <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2346,7 +2343,7 @@
         <v>248</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2450,7 +2447,7 @@
         <v>257</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2476,7 +2473,7 @@
         <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2502,7 +2499,7 @@
         <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2554,7 +2551,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2580,7 +2577,7 @@
         <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2606,7 +2603,7 @@
         <v>260</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2632,7 +2629,7 @@
         <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2658,7 +2655,7 @@
         <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2736,7 +2733,7 @@
         <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2762,7 +2759,7 @@
         <v>261</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2866,7 +2863,7 @@
         <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2892,7 +2889,7 @@
         <v>247</v>
       </c>
       <c r="H65" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2918,7 +2915,7 @@
         <v>250</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2944,7 +2941,7 @@
         <v>262</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2970,7 +2967,7 @@
         <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2996,7 +2993,7 @@
         <v>263</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3022,7 +3019,7 @@
         <v>247</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3074,7 +3071,7 @@
         <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3100,7 +3097,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3126,7 +3123,7 @@
         <v>264</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3152,7 +3149,7 @@
         <v>247</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3175,10 +3172,10 @@
         <v>215</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3201,10 +3198,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3230,7 +3227,7 @@
         <v>247</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3256,7 +3253,7 @@
         <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3282,7 +3279,7 @@
         <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3305,10 +3302,10 @@
         <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3331,10 +3328,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3357,10 +3354,10 @@
         <v>219</v>
       </c>
       <c r="G83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3383,10 +3380,10 @@
         <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3409,10 +3406,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3461,10 +3458,10 @@
         <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3490,7 +3487,7 @@
         <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3542,7 +3539,7 @@
         <v>247</v>
       </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3568,7 +3565,7 @@
         <v>250</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3620,7 +3617,7 @@
         <v>248</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3643,10 +3640,10 @@
         <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3724,7 +3721,7 @@
         <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3747,10 +3744,10 @@
         <v>230</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3773,10 +3770,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3799,10 +3796,10 @@
         <v>231</v>
       </c>
       <c r="G100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3825,10 +3822,10 @@
         <v>232</v>
       </c>
       <c r="G101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
